--- a/WebNewBook/File/file_mau (1).xlsx
+++ b/WebNewBook/File/file_mau (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A055B-8950-4568-B413-F7447B2B5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A94524-1F0D-4432-BB1D-3219F6BE0239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1463" windowWidth="14400" windowHeight="7387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File" sheetId="2" r:id="rId1"/>
@@ -20,21 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mã Voucher</t>
   </si>
   <si>
-    <t>MH12</t>
-  </si>
-  <si>
-    <t>MH13</t>
-  </si>
-  <si>
-    <t>MH14</t>
-  </si>
-  <si>
-    <t>MH15</t>
+    <t>VCT1</t>
+  </si>
+  <si>
+    <t>VCT2</t>
+  </si>
+  <si>
+    <t>VCT3</t>
+  </si>
+  <si>
+    <t>VCT4</t>
+  </si>
+  <si>
+    <t>VCT5</t>
+  </si>
+  <si>
+    <t>VCT6</t>
+  </si>
+  <si>
+    <t>VCT7</t>
+  </si>
+  <si>
+    <t>VCT8</t>
+  </si>
+  <si>
+    <t>VCT9</t>
+  </si>
+  <si>
+    <t>VCT10</t>
+  </si>
+  <si>
+    <t>VCT11</t>
+  </si>
+  <si>
+    <t>VCT12</t>
+  </si>
+  <si>
+    <t>VCT13</t>
+  </si>
+  <si>
+    <t>VCT14</t>
+  </si>
+  <si>
+    <t>VCT15</t>
+  </si>
+  <si>
+    <t>VCT16</t>
+  </si>
+  <si>
+    <t>VCT17</t>
+  </si>
+  <si>
+    <t>VCT18</t>
+  </si>
+  <si>
+    <t>VCT19</t>
   </si>
 </sst>
 </file>
@@ -75,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,37 +423,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/WebNewBook/File/file_mau (1).xlsx
+++ b/WebNewBook/File/file_mau (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Cuong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A94524-1F0D-4432-BB1D-3219F6BE0239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455E79F-56B6-48E0-90CA-5059F6FECC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File" sheetId="2" r:id="rId1"/>
@@ -20,66 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mã Voucher</t>
   </si>
   <si>
-    <t>VCT1</t>
-  </si>
-  <si>
-    <t>VCT2</t>
-  </si>
-  <si>
-    <t>VCT3</t>
-  </si>
-  <si>
-    <t>VCT4</t>
-  </si>
-  <si>
-    <t>VCT5</t>
-  </si>
-  <si>
-    <t>VCT6</t>
-  </si>
-  <si>
-    <t>VCT7</t>
-  </si>
-  <si>
-    <t>VCT8</t>
-  </si>
-  <si>
-    <t>VCT9</t>
-  </si>
-  <si>
-    <t>VCT10</t>
-  </si>
-  <si>
-    <t>VCT11</t>
-  </si>
-  <si>
-    <t>VCT12</t>
-  </si>
-  <si>
-    <t>VCT13</t>
-  </si>
-  <si>
-    <t>VCT14</t>
-  </si>
-  <si>
-    <t>VCT15</t>
-  </si>
-  <si>
-    <t>VCT16</t>
-  </si>
-  <si>
-    <t>VCT17</t>
-  </si>
-  <si>
-    <t>VCT18</t>
-  </si>
-  <si>
-    <t>VCT19</t>
+    <t>VAS1</t>
+  </si>
+  <si>
+    <t>VAS2</t>
+  </si>
+  <si>
+    <t>VAS3</t>
+  </si>
+  <si>
+    <t>VAS4</t>
+  </si>
+  <si>
+    <t>VAS5</t>
+  </si>
+  <si>
+    <t>VAS6</t>
+  </si>
+  <si>
+    <t>VAS7</t>
+  </si>
+  <si>
+    <t>VAS8</t>
+  </si>
+  <si>
+    <t>VAS9</t>
+  </si>
+  <si>
+    <t>VAS10</t>
+  </si>
+  <si>
+    <t>VAS11</t>
+  </si>
+  <si>
+    <t>VAS12</t>
+  </si>
+  <si>
+    <t>VAS13</t>
+  </si>
+  <si>
+    <t>VAS14</t>
+  </si>
+  <si>
+    <t>VAS15</t>
   </si>
 </sst>
 </file>
@@ -120,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,112 +411,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
